--- a/Upload/History_and_Forecast_Report-20230206.xlsx
+++ b/Upload/History_and_Forecast_Report-20230206.xlsx
@@ -748,7 +748,7 @@
       </c>
       <c r="K5" s="13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>77777</t>
         </is>
       </c>
       <c r="L5" s="13" t="n">
